--- a/ex/Zal.xlsx
+++ b/ex/Zal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="חוברת_עבודה_זו"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{99D41E17-81C0-4AE7-B955-A9697609294F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDD144F-5D9C-421F-AF3F-A96E226B2137}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="854">
   <si>
     <t>חישוב שבוע</t>
   </si>
@@ -2985,8 +2985,8 @@
   <sheetPr codeName="גיליון1"/>
   <dimension ref="A1:K482"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="C418" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G428" sqref="G428"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" topLeftCell="C425" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G425" sqref="G425:H431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3023,14 +3023,14 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">TODAY()-WEEKDAY(TODAY())+1</f>
-        <v>43317</v>
+        <v>43331</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="2" t="str">
         <f ca="1">TEXT(B2,"[$-he-IL,8]mmmm;@")</f>
-        <v>אב</v>
+        <v>אלול</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3039,14 +3039,14 @@
       </c>
       <c r="B3" s="2" t="str">
         <f ca="1">TEXT(B2,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אב 24</v>
+        <v>אלול 08</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="12" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;1</f>
-        <v>אב 01</v>
+        <v>אלול 01</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ref="J3:J32" ca="1" si="0">IFERROR(VLOOKUP(I3,A:C,3,FALSE),"")</f>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K32" ca="1" si="1">IFERROR(VLOOKUP(I3,A:D,4,FALSE),"")</f>
-        <v>א' אב</v>
+        <v>א' אלול</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3063,14 +3063,14 @@
       </c>
       <c r="B4" s="2" t="str">
         <f ca="1">TEXT(B2+1,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אב 25</v>
+        <v>אלול 09</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="12" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;2</f>
-        <v>אב 02</v>
+        <v>אלול 02</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="K4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ב' אב</v>
+        <v>ב' אלול</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3087,14 +3087,14 @@
       </c>
       <c r="B5" s="2" t="str">
         <f ca="1">TEXT(B2+2,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אב 26</v>
+        <v>אלול 10</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;3</f>
-        <v>אב 03</v>
+        <v>אלול 03</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="K5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ג' אב</v>
+        <v>ג' אלול</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3111,14 +3111,14 @@
       </c>
       <c r="B6" s="2" t="str">
         <f ca="1">TEXT(B2+3,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אב 27</v>
+        <v>אלול 11</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;4</f>
-        <v>אב 04</v>
+        <v>אלול 04</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="K6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ד' אב</v>
+        <v>ד' אלול</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3135,14 +3135,14 @@
       </c>
       <c r="B7" s="2" t="str">
         <f ca="1">TEXT(B2+4,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אב 28</v>
+        <v>אלול 12</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;5</f>
-        <v>אב 05</v>
+        <v>אלול 05</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="K7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ה' אב</v>
+        <v>ה' אלול</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3159,14 +3159,14 @@
       </c>
       <c r="B8" s="2" t="str">
         <f ca="1">TEXT(B2+5,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אב 29</v>
+        <v>אלול 13</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;6</f>
-        <v>אב 06</v>
+        <v>אלול 06</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ו' אב</v>
+        <v>ו' אלול</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3183,14 +3183,14 @@
       </c>
       <c r="B9" s="2" t="str">
         <f ca="1">TEXT(B2+6,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אב 30</v>
+        <v>אלול 14</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="I9" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;7</f>
-        <v>אב 07</v>
+        <v>אלול 07</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ז' אב</v>
+        <v>ז' אלול</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="I10" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;8</f>
-        <v>אב 08</v>
+        <v>אלול 08</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ח' אב</v>
+        <v>ח' אלול</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="I11" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;"0"&amp;9</f>
-        <v>אב 09</v>
+        <v>אלול 09</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ט' אב</v>
+        <v>ט' אלול</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="I12" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;10</f>
-        <v>אב 10</v>
+        <v>אלול 10</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>י' אב</v>
+        <v>י' אלול</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="I13" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;11</f>
-        <v>אב 11</v>
+        <v>אלול 11</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>יא אב</v>
+        <v>יא אלול</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="I14" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;12</f>
-        <v>אב 12</v>
+        <v>אלול 12</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3317,7 +3317,7 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>יב אב</v>
+        <v>יב אלול</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="I15" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;13</f>
-        <v>אב 13</v>
+        <v>אלול 13</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>יג אב</v>
+        <v>יג אלול</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="I16" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;14</f>
-        <v>אב 14</v>
+        <v>אלול 14</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>יד אב</v>
+        <v>יד אלול</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="I17" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;15</f>
-        <v>אב 15</v>
+        <v>אלול 15</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ט"ו אב</v>
+        <v>ט"ו אלול</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3405,7 +3405,7 @@
       </c>
       <c r="I18" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;16</f>
-        <v>אב 16</v>
+        <v>אלול 16</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ט"ז אב</v>
+        <v>ט"ז אלול</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="I19" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;17</f>
-        <v>אב 17</v>
+        <v>אלול 17</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>י"ז אב</v>
+        <v>י"ז אלול</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="I20" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;18</f>
-        <v>אב 18</v>
+        <v>אלול 18</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>י"ח אב</v>
+        <v>י"ח אלול</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="I21" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;19</f>
-        <v>אב 19</v>
+        <v>אלול 19</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>י"ט אב</v>
+        <v>י"ט אלול</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="I22" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;20</f>
-        <v>אב 20</v>
+        <v>אלול 20</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ' אב</v>
+        <v>כ' אלול</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="I23" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;21</f>
-        <v>אב 21</v>
+        <v>אלול 21</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"א אב</v>
+        <v>כ"א אלול</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="I24" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;22</f>
-        <v>אב 22</v>
+        <v>אלול 22</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"ב אב</v>
+        <v>כ"ב אלול</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3572,7 +3572,7 @@
       </c>
       <c r="I25" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;23</f>
-        <v>אב 23</v>
+        <v>אלול 23</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"ג אב</v>
+        <v>כ"ג אלול</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="I26" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;24</f>
-        <v>אב 24</v>
+        <v>אלול 24</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"ד אב</v>
+        <v>כ"ד אלול</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3612,14 +3612,14 @@
       </c>
       <c r="B27" t="str">
         <f ca="1">TEXT(B2+7,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אלול 01</v>
+        <v>אלול 15</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;25</f>
-        <v>אב 25</v>
+        <v>אלול 25</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"ה אב</v>
+        <v>כ"ה אלול</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3636,14 +3636,14 @@
       </c>
       <c r="B28" t="str">
         <f ca="1">TEXT(B2+8,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אלול 02</v>
+        <v>אלול 16</v>
       </c>
       <c r="D28" t="s">
         <v>37</v>
       </c>
       <c r="I28" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;26</f>
-        <v>אב 26</v>
+        <v>אלול 26</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"ו אב</v>
+        <v>כ"ו אלול</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -3660,14 +3660,14 @@
       </c>
       <c r="B29" t="str">
         <f ca="1">TEXT(B2+9,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אלול 03</v>
+        <v>אלול 17</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;27</f>
-        <v>אב 27</v>
+        <v>אלול 27</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"ז אב</v>
+        <v>כ"ז אלול</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -3684,14 +3684,14 @@
       </c>
       <c r="B30" t="str">
         <f ca="1">TEXT(B2+10,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אלול 04</v>
+        <v>אלול 18</v>
       </c>
       <c r="D30" t="s">
         <v>39</v>
       </c>
       <c r="I30" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;28</f>
-        <v>אב 28</v>
+        <v>אלול 28</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"ח אב</v>
+        <v>כ"ח אלול</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -3708,14 +3708,14 @@
       </c>
       <c r="B31" t="str">
         <f ca="1">TEXT(B2+11,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אלול 05</v>
+        <v>אלול 19</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="I31" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;29</f>
-        <v>אב 29</v>
+        <v>אלול 29</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>כ"ט אב</v>
+        <v>כ"ט אלול</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -3732,14 +3732,14 @@
       </c>
       <c r="B32" t="str">
         <f ca="1">TEXT(B2+12,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אלול 06</v>
+        <v>אלול 20</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
       </c>
       <c r="I32" s="2" t="str">
         <f ca="1">I2&amp;" "&amp;30</f>
-        <v>אב 30</v>
+        <v>אלול 30</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ל' אב</v>
+        <v>ל' אלול</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B33" t="str">
         <f ca="1">TEXT(B2+13,"[$-he-IL,8]mmmm dd;@")</f>
-        <v>אלול 07</v>
+        <v>אלול 21</v>
       </c>
       <c r="D33" t="s">
         <v>42</v>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B79" t="str">
         <f ca="1">IFERROR(VLOOKUP(B3,A:D,4,FALSE),"")</f>
-        <v>כ"ד אב</v>
+        <v>ח' אלול</v>
       </c>
       <c r="D79" t="s">
         <v>88</v>
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B80" t="str">
         <f t="shared" ref="B80:B85" ca="1" si="4">IFERROR(VLOOKUP(B4,A:D,4,FALSE),"")</f>
-        <v>כ"ה אב</v>
+        <v>ט' אלול</v>
       </c>
       <c r="D80" t="s">
         <v>89</v>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B81" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>כ"ו אב</v>
+        <v>י' אלול</v>
       </c>
       <c r="D81" t="s">
         <v>90</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B82" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>כ"ז אב</v>
+        <v>יא אלול</v>
       </c>
       <c r="D82" t="s">
         <v>91</v>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B83" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>כ"ח אב</v>
+        <v>יב אלול</v>
       </c>
       <c r="D83" t="s">
         <v>92</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B84" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>כ"ט אב</v>
+        <v>יג אלול</v>
       </c>
       <c r="D84" t="s">
         <v>93</v>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B85" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>ל' אב</v>
+        <v>יד אלול</v>
       </c>
       <c r="D85" t="s">
         <v>94</v>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="B88" t="str">
         <f ca="1">IFERROR(VLOOKUP(B27,A:D,4,FALSE),"")</f>
-        <v>א' אלול</v>
+        <v>ט"ו אלול</v>
       </c>
       <c r="D88" t="s">
         <v>97</v>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B89" t="str">
         <f t="shared" ref="B89:B94" ca="1" si="5">IFERROR(VLOOKUP(B28,A:D,4,FALSE),"")</f>
-        <v>ב' אלול</v>
+        <v>ט"ז אלול</v>
       </c>
       <c r="D89" t="s">
         <v>98</v>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="B90" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ג' אלול</v>
+        <v>י"ז אלול</v>
       </c>
       <c r="D90" t="s">
         <v>99</v>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="B91" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ד' אלול</v>
+        <v>י"ח אלול</v>
       </c>
       <c r="D91" t="s">
         <v>100</v>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="B92" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ה' אלול</v>
+        <v>י"ט אלול</v>
       </c>
       <c r="D92" t="s">
         <v>101</v>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="B93" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ו' אלול</v>
+        <v>כ' אלול</v>
       </c>
       <c r="D93" t="s">
         <v>102</v>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B94" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>ז' אלול</v>
+        <v>כ"א אלול</v>
       </c>
       <c r="D94" t="s">
         <v>103</v>
@@ -7019,14 +7019,24 @@
         <v>847</v>
       </c>
     </row>
+    <row r="425" spans="1:10" ht="45.75" x14ac:dyDescent="0.65">
+      <c r="G425" s="7">
+        <f t="shared" ref="G425:H431" ca="1" si="6">IF(OR(WEEKDAY(TODAY())=7,AND(WEEKDAY(TODAY()=6),NOW()-TODAY()&gt;TIME(19,15,0))),G444,G434)</f>
+        <v>0</v>
+      </c>
+      <c r="H425" s="6" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>ח' אלול</v>
+      </c>
+    </row>
     <row r="426" spans="1:10" ht="45.75" x14ac:dyDescent="0.65">
       <c r="G426" s="7">
-        <f t="shared" ref="G426:H432" ca="1" si="6">IF(OR(WEEKDAY(TODAY())=7,AND(WEEKDAY(TODAY()=6),NOW()-TODAY()&gt;TIME(19,15,0))),G444,G434)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="H426" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>א' אלול</v>
+        <v>ט' אלול</v>
       </c>
     </row>
     <row r="427" spans="1:10" ht="45.75" x14ac:dyDescent="0.65">
@@ -7036,7 +7046,7 @@
       </c>
       <c r="H427" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ב' אלול</v>
+        <v>י' אלול</v>
       </c>
     </row>
     <row r="428" spans="1:10" ht="45.75" x14ac:dyDescent="0.65">
@@ -7046,7 +7056,7 @@
       </c>
       <c r="H428" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ג' אלול</v>
+        <v>יא אלול</v>
       </c>
     </row>
     <row r="429" spans="1:10" ht="45.75" x14ac:dyDescent="0.65">
@@ -7056,7 +7066,7 @@
       </c>
       <c r="H429" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ד' אלול</v>
+        <v>יב אלול</v>
       </c>
     </row>
     <row r="430" spans="1:10" ht="45.75" x14ac:dyDescent="0.65">
@@ -7066,7 +7076,7 @@
       </c>
       <c r="H430" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ה' אלול</v>
+        <v>יג אלול</v>
       </c>
     </row>
     <row r="431" spans="1:10" ht="45.75" x14ac:dyDescent="0.65">
@@ -7076,17 +7086,7 @@
       </c>
       <c r="H431" s="6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>ו' אלול</v>
-      </c>
-    </row>
-    <row r="432" spans="1:10" ht="45.75" x14ac:dyDescent="0.65">
-      <c r="G432" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H432" s="6" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>ז' אלול</v>
+        <v>יד אלול</v>
       </c>
     </row>
     <row r="433" spans="7:8" ht="15" x14ac:dyDescent="0.2">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="H434" s="10" t="str">
         <f t="shared" ref="H434:H440" ca="1" si="8">B79</f>
-        <v>כ"ד אב</v>
+        <v>ח' אלול</v>
       </c>
     </row>
     <row r="435" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="H435" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>כ"ה אב</v>
+        <v>ט' אלול</v>
       </c>
     </row>
     <row r="436" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="H436" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>כ"ו אב</v>
+        <v>י' אלול</v>
       </c>
     </row>
     <row r="437" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="H437" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>כ"ז אב</v>
+        <v>יא אלול</v>
       </c>
     </row>
     <row r="438" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="H438" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>כ"ח אב</v>
+        <v>יב אלול</v>
       </c>
     </row>
     <row r="439" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="H439" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>כ"ט אב</v>
+        <v>יג אלול</v>
       </c>
     </row>
     <row r="440" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="H440" s="10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>ל' אב</v>
+        <v>יד אלול</v>
       </c>
     </row>
     <row r="441" spans="7:8" ht="15" x14ac:dyDescent="0.2">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="H444" s="10" t="str">
         <f t="shared" ref="H444:H450" ca="1" si="10">B88</f>
-        <v>א' אלול</v>
+        <v>ט"ו אלול</v>
       </c>
     </row>
     <row r="445" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="H445" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>ב' אלול</v>
+        <v>ט"ז אלול</v>
       </c>
     </row>
     <row r="446" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="H446" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>ג' אלול</v>
+        <v>י"ז אלול</v>
       </c>
     </row>
     <row r="447" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="H447" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>ד' אלול</v>
+        <v>י"ח אלול</v>
       </c>
     </row>
     <row r="448" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="H448" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>ה' אלול</v>
+        <v>י"ט אלול</v>
       </c>
     </row>
     <row r="449" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7238,7 +7238,7 @@
       </c>
       <c r="H449" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>ו' אלול</v>
+        <v>כ' אלול</v>
       </c>
     </row>
     <row r="450" spans="7:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="H450" s="10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>ז' אלול</v>
+        <v>כ"א אלול</v>
       </c>
     </row>
     <row r="451" spans="7:8" ht="15" x14ac:dyDescent="0.2">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="H453" s="14" t="str">
         <f t="shared" ref="H453:H481" ca="1" si="12">K3</f>
-        <v>א' אב</v>
+        <v>א' אלול</v>
       </c>
     </row>
     <row r="454" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="H454" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ב' אב</v>
+        <v>ב' אלול</v>
       </c>
     </row>
     <row r="455" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="H455" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ג' אב</v>
+        <v>ג' אלול</v>
       </c>
     </row>
     <row r="456" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="H456" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ד' אב</v>
+        <v>ד' אלול</v>
       </c>
     </row>
     <row r="457" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="H457" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ה' אב</v>
+        <v>ה' אלול</v>
       </c>
     </row>
     <row r="458" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="H458" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ו' אב</v>
+        <v>ו' אלול</v>
       </c>
     </row>
     <row r="459" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="H459" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ז' אב</v>
+        <v>ז' אלול</v>
       </c>
     </row>
     <row r="460" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7334,7 +7334,7 @@
       </c>
       <c r="H460" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ח' אב</v>
+        <v>ח' אלול</v>
       </c>
     </row>
     <row r="461" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="H461" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ט' אב</v>
+        <v>ט' אלול</v>
       </c>
     </row>
     <row r="462" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="H462" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>י' אב</v>
+        <v>י' אלול</v>
       </c>
     </row>
     <row r="463" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7364,7 +7364,7 @@
       </c>
       <c r="H463" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>יא אב</v>
+        <v>יא אלול</v>
       </c>
     </row>
     <row r="464" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="H464" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>יב אב</v>
+        <v>יב אלול</v>
       </c>
     </row>
     <row r="465" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="H465" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>יג אב</v>
+        <v>יג אלול</v>
       </c>
     </row>
     <row r="466" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="H466" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>יד אב</v>
+        <v>יד אלול</v>
       </c>
     </row>
     <row r="467" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="H467" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ט"ו אב</v>
+        <v>ט"ו אלול</v>
       </c>
     </row>
     <row r="468" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="H468" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>ט"ז אב</v>
+        <v>ט"ז אלול</v>
       </c>
     </row>
     <row r="469" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="H469" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>י"ז אב</v>
+        <v>י"ז אלול</v>
       </c>
     </row>
     <row r="470" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="H470" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>י"ח אב</v>
+        <v>י"ח אלול</v>
       </c>
     </row>
     <row r="471" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="H471" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>י"ט אב</v>
+        <v>י"ט אלול</v>
       </c>
     </row>
     <row r="472" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="H472" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ' אב</v>
+        <v>כ' אלול</v>
       </c>
     </row>
     <row r="473" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="H473" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"א אב</v>
+        <v>כ"א אלול</v>
       </c>
     </row>
     <row r="474" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="H474" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"ב אב</v>
+        <v>כ"ב אלול</v>
       </c>
     </row>
     <row r="475" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="H475" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"ג אב</v>
+        <v>כ"ג אלול</v>
       </c>
     </row>
     <row r="476" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="H476" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"ד אב</v>
+        <v>כ"ד אלול</v>
       </c>
     </row>
     <row r="477" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="H477" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"ה אב</v>
+        <v>כ"ה אלול</v>
       </c>
     </row>
     <row r="478" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="H478" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"ו אב</v>
+        <v>כ"ו אלול</v>
       </c>
     </row>
     <row r="479" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="H479" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"ז אב</v>
+        <v>כ"ז אלול</v>
       </c>
     </row>
     <row r="480" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="H480" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"ח אב</v>
+        <v>כ"ח אלול</v>
       </c>
     </row>
     <row r="481" spans="7:8" ht="45" x14ac:dyDescent="0.6">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="H481" s="14" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>כ"ט אב</v>
+        <v>כ"ט אלול</v>
       </c>
     </row>
     <row r="482" spans="7:8" ht="45" x14ac:dyDescent="0.6">
